--- a/Hydrophones/Calibration/flow_experiment_tracers.xlsx
+++ b/Hydrophones/Calibration/flow_experiment_tracers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81C1E90-CA61-4213-8511-691E4F8806B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA694F-F7D2-447D-8461-9F9A7786B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B073A66E-6BB5-492B-8275-ACCE89EFB9F4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B073A66E-6BB5-492B-8275-ACCE89EFB9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Flood1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="30">
   <si>
     <t>Tracer ID</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>% Tracers Moved</t>
+  </si>
+  <si>
+    <t>Flood 1</t>
+  </si>
+  <si>
+    <t>Flood 2</t>
+  </si>
+  <si>
+    <t>Flood 3</t>
+  </si>
+  <si>
+    <t>Flood 4</t>
+  </si>
+  <si>
+    <t>Flood 5</t>
   </si>
 </sst>
 </file>
@@ -200,12 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -214,16 +229,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,13 +247,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -583,30 +604,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D864ED87-307D-4916-B61D-7A986C44CDD6}">
-  <dimension ref="A1:R69"/>
+  <dimension ref="A1:S69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="16.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.109375" style="1"/>
+    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" customWidth="1"/>
-    <col min="16" max="16" width="14" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="13.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -635,7 +658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>7</v>
       </c>
@@ -663,8 +686,18 @@
       <c r="I2" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>151</v>
       </c>
@@ -717,7 +750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>89</v>
       </c>
@@ -752,11 +785,28 @@
         <v>128</v>
       </c>
       <c r="M4" s="1">
-        <f>COUNTIF(B2:B68,"o")</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <f>COUNTIF($B$2:$B$68,"o")</f>
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $E$2:$E$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <f>N4/M4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>149</v>
       </c>
@@ -791,11 +841,32 @@
         <v>90</v>
       </c>
       <c r="M5" s="1">
-        <f>COUNTIF(B2:B68,"w")</f>
+        <f>COUNTIF($B$2:$B$68,"w")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N5" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $E$2:$E$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "w", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>102</v>
+      </c>
+      <c r="P5" s="1">
+        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "w", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>102</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "w", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>102</v>
+      </c>
+      <c r="R5" s="14">
+        <f t="shared" ref="R5:R9" si="0">N5/M5*100</f>
+        <v>12.5</v>
+      </c>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>23</v>
       </c>
@@ -830,11 +901,32 @@
         <v>64</v>
       </c>
       <c r="M6" s="1">
-        <f>COUNTIF(B2:B68,"p")</f>
+        <f>COUNTIF($B$2:$B$68,"p")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $E$2:$E$66,"&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "p", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>18</v>
+      </c>
+      <c r="P6" s="1">
+        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "p", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "p", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>24</v>
+      </c>
+      <c r="R6" s="14">
+        <f t="shared" si="0"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>158</v>
       </c>
@@ -869,11 +961,32 @@
         <v>45</v>
       </c>
       <c r="M7" s="1">
-        <f>COUNTIF(B2:B68,"g")</f>
+        <f>COUNTIF($B$2:$B$68,"g")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N7" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $E$2:$E$66,"&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "g", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="1">
+        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "g", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="Q7" s="1">
+        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "g", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>27</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>157</v>
       </c>
@@ -908,11 +1021,32 @@
         <v>32</v>
       </c>
       <c r="M8" s="1">
-        <f>COUNTIF(B2:B68,"y")</f>
+        <f>COUNTIF($B$2:$B$68,"y")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N8" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $E$2:$E$66,"&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="O8" s="1">
+        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "y", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>19.3</v>
+      </c>
+      <c r="P8" s="1">
+        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "y", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "y", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>36.5</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>141</v>
       </c>
@@ -940,18 +1074,39 @@
       <c r="I9" s="7">
         <v>40</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="12" t="s">
         <v>7</v>
       </c>
       <c r="L9" s="1">
         <v>16</v>
       </c>
       <c r="M9" s="1">
-        <f>COUNTIF(B2:B68,"r")</f>
+        <f>COUNTIF($B$2:$B$68,"r")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $E$2:$E$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "r", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="P9" s="1">
+        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "r", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "r", $E$2:$E$66, "&lt;&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>163</v>
       </c>
@@ -980,7 +1135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>170</v>
       </c>
@@ -1008,8 +1163,18 @@
       <c r="I11" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>167</v>
       </c>
@@ -1037,8 +1202,32 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>101</v>
       </c>
@@ -1066,8 +1255,35 @@
       <c r="I13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>128</v>
+      </c>
+      <c r="M13" s="1">
+        <f>COUNTIF($B$2:$B$68,"o")</f>
+        <v>5</v>
+      </c>
+      <c r="N13" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="14">
+        <f>N13/M13*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>35</v>
       </c>
@@ -1095,8 +1311,38 @@
       <c r="I14" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="1">
+        <v>90</v>
+      </c>
+      <c r="M14" s="1">
+        <f>COUNTIF($B$2:$B$68,"w")</f>
+        <v>8</v>
+      </c>
+      <c r="N14" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <f>AVERAGEIFS($F2:$F66, $B$2:$B$66, "w", $F2:$F66, "&lt;&gt;0")</f>
+        <v>13</v>
+      </c>
+      <c r="P14" s="1">
+        <f>_xlfn.MINIFS($F2:$F66, $B$2:$B$66, "w", $F2:$F66, "&lt;&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="Q14" s="1">
+        <f>_xlfn.MAXIFS($F2:$F66, $B$2:$B$66, "w", $F2:$F66, "&lt;&gt;0")</f>
+        <v>19</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" ref="R14:R18" si="1">N14/M14*100</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>52</v>
       </c>
@@ -1124,8 +1370,38 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
+        <v>64</v>
+      </c>
+      <c r="M15" s="1">
+        <f>COUNTIF($B$2:$B$68,"p")</f>
+        <v>14</v>
+      </c>
+      <c r="N15" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>23.75</v>
+      </c>
+      <c r="P15" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>43</v>
+      </c>
+      <c r="R15" s="14">
+        <f t="shared" si="1"/>
+        <v>28.571428571428569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>146</v>
       </c>
@@ -1153,8 +1429,38 @@
       <c r="I16" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L16" s="1">
+        <v>45</v>
+      </c>
+      <c r="M16" s="1">
+        <f>COUNTIF($B$2:$B$68,"g")</f>
+        <v>16</v>
+      </c>
+      <c r="N16" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="O16" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>24.8</v>
+      </c>
+      <c r="P16" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>50</v>
+      </c>
+      <c r="R16" s="14">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>156</v>
       </c>
@@ -1182,8 +1488,38 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1">
+        <v>32</v>
+      </c>
+      <c r="M17" s="1">
+        <f>COUNTIF($B$2:$B$68,"y")</f>
+        <v>20</v>
+      </c>
+      <c r="N17" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>8</v>
+      </c>
+      <c r="O17" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>55</v>
+      </c>
+      <c r="P17" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>140</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>97</v>
       </c>
@@ -1211,8 +1547,38 @@
       <c r="I18" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="1">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1">
+        <f>COUNTIF($B$2:$B$68,"r")</f>
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="P18" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>41</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>162</v>
       </c>
@@ -1241,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>65</v>
       </c>
@@ -1269,8 +1635,18 @@
       <c r="I20" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>133</v>
       </c>
@@ -1298,8 +1674,32 @@
       <c r="I21" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>111</v>
       </c>
@@ -1327,8 +1727,35 @@
       <c r="I22" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="1">
+        <v>128</v>
+      </c>
+      <c r="M22" s="1">
+        <f>COUNTIF($B$2:$B$68,"o")</f>
+        <v>5</v>
+      </c>
+      <c r="N22" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="14">
+        <f>N22/M22*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>6</v>
       </c>
@@ -1356,8 +1783,35 @@
       <c r="I23" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="1">
+        <v>90</v>
+      </c>
+      <c r="M23" s="1">
+        <f>COUNTIF($B$2:$B$68,"w")</f>
+        <v>8</v>
+      </c>
+      <c r="N23" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" ref="R23:R27" si="2">N23/M23*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -1385,8 +1839,35 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1">
+        <v>64</v>
+      </c>
+      <c r="M24" s="1">
+        <f>COUNTIF($B$2:$B$68,"p")</f>
+        <v>14</v>
+      </c>
+      <c r="N24" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>127</v>
       </c>
@@ -1414,8 +1895,38 @@
       <c r="I25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>45</v>
+      </c>
+      <c r="M25" s="1">
+        <f>COUNTIF($B$2:$B$68,"g")</f>
+        <v>16</v>
+      </c>
+      <c r="N25" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>38</v>
+      </c>
+      <c r="P25" s="1">
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>12</v>
+      </c>
+      <c r="Q25" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>59</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" si="2"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>53</v>
       </c>
@@ -1443,8 +1954,38 @@
       <c r="I26" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>32</v>
+      </c>
+      <c r="M26" s="1">
+        <f>COUNTIF($B$2:$B$68,"y")</f>
+        <v>20</v>
+      </c>
+      <c r="N26" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>35.5</v>
+      </c>
+      <c r="P26" s="1">
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="Q26" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>96</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>22</v>
       </c>
@@ -1472,8 +2013,38 @@
       <c r="I27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" s="1">
+        <v>16</v>
+      </c>
+      <c r="M27" s="1">
+        <f>COUNTIF($B$2:$B$68,"r")</f>
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>101</v>
+      </c>
+      <c r="P27" s="1">
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>101</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>101</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>99</v>
       </c>
@@ -1502,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>38</v>
       </c>
@@ -1530,8 +2101,18 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>135</v>
       </c>
@@ -1559,8 +2140,32 @@
       <c r="I30" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>166</v>
       </c>
@@ -1588,8 +2193,35 @@
       <c r="I31" s="12">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>128</v>
+      </c>
+      <c r="M31" s="1">
+        <f>COUNTIF($B$2:$B$68,"o")</f>
+        <v>5</v>
+      </c>
+      <c r="N31" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0</v>
+      </c>
+      <c r="R31" s="14">
+        <f>N31/M31*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -1617,8 +2249,35 @@
       <c r="I32" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="1">
+        <v>90</v>
+      </c>
+      <c r="M32" s="1">
+        <f>COUNTIF($B$2:$B$68,"w")</f>
+        <v>8</v>
+      </c>
+      <c r="N32" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0</v>
+      </c>
+      <c r="R32" s="14">
+        <f t="shared" ref="R32:R36" si="3">N32/M32*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>160</v>
       </c>
@@ -1646,8 +2305,38 @@
       <c r="I33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1">
+        <v>64</v>
+      </c>
+      <c r="M33" s="1">
+        <f>COUNTIF($B$2:$B$68,"p")</f>
+        <v>14</v>
+      </c>
+      <c r="N33" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "p", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>30</v>
+      </c>
+      <c r="P33" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "p", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>30</v>
+      </c>
+      <c r="Q33" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "p", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>30</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>155</v>
       </c>
@@ -1675,8 +2364,38 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L34" s="1">
+        <v>45</v>
+      </c>
+      <c r="M34" s="1">
+        <f>COUNTIF($B$2:$B$68,"g")</f>
+        <v>16</v>
+      </c>
+      <c r="N34" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="O34" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>55.25</v>
+      </c>
+      <c r="P34" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>116</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>137</v>
       </c>
@@ -1704,8 +2423,38 @@
       <c r="I35" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="1">
+        <v>32</v>
+      </c>
+      <c r="M35" s="1">
+        <f>COUNTIF($B$2:$B$68,"y")</f>
+        <v>20</v>
+      </c>
+      <c r="N35" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="O35" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>26.75</v>
+      </c>
+      <c r="P35" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>9</v>
+      </c>
+      <c r="Q35" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>37</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>141</v>
       </c>
@@ -1733,8 +2482,38 @@
       <c r="I36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L36" s="1">
+        <v>16</v>
+      </c>
+      <c r="M36" s="1">
+        <f>COUNTIF($B$2:$B$68,"r")</f>
+        <v>2</v>
+      </c>
+      <c r="N36" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>86</v>
+      </c>
+      <c r="P36" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>86</v>
+      </c>
+      <c r="Q36" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
+        <v>86</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>94</v>
       </c>
@@ -1763,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>8</v>
       </c>
@@ -1791,8 +2570,18 @@
       <c r="I38" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>98</v>
       </c>
@@ -1820,8 +2609,32 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>11</v>
       </c>
@@ -1849,8 +2662,35 @@
       <c r="I40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>128</v>
+      </c>
+      <c r="M40" s="1">
+        <f>COUNTIF($B$2:$B$68,"o")</f>
+        <v>5</v>
+      </c>
+      <c r="N40" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0</v>
+      </c>
+      <c r="R40" s="14">
+        <f>N40/M40*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>82</v>
       </c>
@@ -1878,8 +2718,38 @@
       <c r="I41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="1">
+        <v>90</v>
+      </c>
+      <c r="M41" s="1">
+        <f>COUNTIF($B$2:$B$68,"w")</f>
+        <v>8</v>
+      </c>
+      <c r="N41" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O41" s="15">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "w", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>94</v>
+      </c>
+      <c r="P41" s="15">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "w", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>94</v>
+      </c>
+      <c r="Q41" s="15">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "w", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>94</v>
+      </c>
+      <c r="R41" s="14">
+        <f t="shared" ref="R41:R45" si="4">N41/M41*100</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>18</v>
       </c>
@@ -1907,8 +2777,38 @@
       <c r="I42" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" s="1">
+        <v>64</v>
+      </c>
+      <c r="M42" s="1">
+        <f>COUNTIF($B$2:$B$68,"p")</f>
+        <v>14</v>
+      </c>
+      <c r="N42" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="15">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="P42" s="15">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="Q42" s="15">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="R42" s="14">
+        <f t="shared" si="4"/>
+        <v>7.1428571428571423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>85</v>
       </c>
@@ -1936,8 +2836,38 @@
       <c r="I43" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="1">
+        <v>45</v>
+      </c>
+      <c r="M43" s="1">
+        <f>COUNTIF($B$2:$B$68,"g")</f>
+        <v>16</v>
+      </c>
+      <c r="N43" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>7</v>
+      </c>
+      <c r="O43" s="14">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>19.428571428571427</v>
+      </c>
+      <c r="P43" s="14">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="Q43" s="14">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>30</v>
+      </c>
+      <c r="R43" s="14">
+        <f t="shared" si="4"/>
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>159</v>
       </c>
@@ -1965,8 +2895,38 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="1">
+        <v>32</v>
+      </c>
+      <c r="M44" s="1">
+        <f>COUNTIF($B$2:$B$68,"y")</f>
+        <v>20</v>
+      </c>
+      <c r="N44" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>6</v>
+      </c>
+      <c r="O44" s="14">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>107.83333333333333</v>
+      </c>
+      <c r="P44" s="14">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>2</v>
+      </c>
+      <c r="Q44" s="14">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
+        <v>534</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -1994,8 +2954,38 @@
       <c r="I45" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L45" s="1">
+        <v>16</v>
+      </c>
+      <c r="M45" s="1">
+        <f>COUNTIF($B$2:$B$68,"r")</f>
+        <v>2</v>
+      </c>
+      <c r="N45" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>1</v>
+      </c>
+      <c r="O45" s="15">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "r",$I$2:$I$66, "&lt;&gt;0")</f>
+        <v>95</v>
+      </c>
+      <c r="P45" s="15">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "r",$I$2:$I$66, "&lt;&gt;0")</f>
+        <v>95</v>
+      </c>
+      <c r="Q45" s="15">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "r",$I$2:$I$66, "&lt;&gt;0")</f>
+        <v>95</v>
+      </c>
+      <c r="R45" s="14">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>118</v>
       </c>
@@ -2024,7 +3014,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>165</v>
       </c>
@@ -2053,7 +3043,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>164</v>
       </c>
@@ -2082,7 +3072,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>168</v>
       </c>
@@ -2111,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>17</v>
       </c>
@@ -2140,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>150</v>
       </c>
@@ -2169,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>132</v>
       </c>
@@ -2198,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>161</v>
       </c>
@@ -2227,7 +3217,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>145</v>
       </c>
@@ -2256,7 +3246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>107</v>
       </c>
@@ -2285,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>105</v>
       </c>
@@ -2314,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>91</v>
       </c>
@@ -2343,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>69</v>
       </c>
@@ -2372,7 +3362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>152</v>
       </c>
@@ -2401,7 +3391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>121</v>
       </c>
@@ -2430,7 +3420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>61</v>
       </c>
@@ -2459,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>146</v>
       </c>
@@ -2488,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>45</v>
       </c>
@@ -2517,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -2546,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>96</v>
       </c>
@@ -2575,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>12</v>
       </c>
@@ -2604,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>74</v>
       </c>
@@ -2633,7 +3623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>51</v>
       </c>
@@ -2662,10 +3652,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G69" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="K38:R38"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hydrophones/Calibration/flow_experiment_tracers.xlsx
+++ b/Hydrophones/Calibration/flow_experiment_tracers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEA694F-F7D2-447D-8461-9F9A7786B2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA85B1-7963-4C93-A92A-9515E0295A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B073A66E-6BB5-492B-8275-ACCE89EFB9F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="32">
   <si>
     <t>Tracer ID</t>
   </si>
@@ -127,6 +127,12 @@
   <si>
     <t>Flood 5</t>
   </si>
+  <si>
+    <t>Size Bin (mm)</t>
+  </si>
+  <si>
+    <t>B-axis (mm)</t>
+  </si>
 </sst>
 </file>
 
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,13 +259,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -604,32 +607,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D864ED87-307D-4916-B61D-7A986C44CDD6}">
-  <dimension ref="A1:S69"/>
+  <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="10.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="16.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="14" width="8.88671875" style="1"/>
-    <col min="15" max="15" width="13.109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="11" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -637,28 +641,31 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
         <v>7</v>
       </c>
@@ -668,12 +675,12 @@
       <c r="C2" s="8">
         <v>128</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="8">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
-        <v>0</v>
-      </c>
       <c r="F2" s="8">
         <v>0</v>
       </c>
@@ -686,18 +693,21 @@
       <c r="I2" s="8">
         <v>0</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="8">
+        <v>0</v>
+      </c>
+      <c r="L2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>151</v>
       </c>
@@ -707,12 +717,12 @@
       <c r="C3" s="11">
         <v>90</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
-      </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
@@ -723,34 +733,37 @@
         <v>0</v>
       </c>
       <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
         <v>94</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>89</v>
       </c>
@@ -760,12 +773,12 @@
       <c r="C4" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
       <c r="F4" s="2">
         <v>0</v>
       </c>
@@ -776,23 +789,23 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>128</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <f>COUNTIF($B$2:$B$68,"o")</f>
         <v>5</v>
       </c>
-      <c r="N4" s="1">
-        <f>COUNTIFS($B$2:$B$66,"o", $E$2:$E$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O4" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $F$2:$F$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P4" s="1">
@@ -801,12 +814,15 @@
       <c r="Q4" s="1">
         <v>0</v>
       </c>
-      <c r="R4" s="14">
-        <f>N4/M4*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R4" s="1">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <f>O4/N4*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>149</v>
       </c>
@@ -816,12 +832,12 @@
       <c r="C5" s="7">
         <v>32</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
@@ -832,41 +848,44 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
         <v>56</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>90</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <f>COUNTIF($B$2:$B$68,"w")</f>
         <v>8</v>
       </c>
-      <c r="N5" s="1">
-        <f>COUNTIFS($B$2:$B$66,"w", $E$2:$E$66,"&lt;&gt;0")</f>
+      <c r="O5" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $F$2:$F$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O5" s="1">
-        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "w", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="P5" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "w", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>102</v>
       </c>
-      <c r="P5" s="1">
-        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "w", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="Q5" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "w", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>102</v>
       </c>
-      <c r="Q5" s="1">
-        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "w", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="R5" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "w", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>102</v>
       </c>
-      <c r="R5" s="14">
-        <f t="shared" ref="R5:R9" si="0">N5/M5*100</f>
+      <c r="S5" s="13">
+        <f t="shared" ref="S5:S9" si="0">O5/N5*100</f>
         <v>12.5</v>
       </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>23</v>
       </c>
@@ -876,12 +895,12 @@
       <c r="C6" s="5">
         <v>64</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
       <c r="F6" s="5">
         <v>0</v>
       </c>
@@ -894,39 +913,42 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>64</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <f>COUNTIF($B$2:$B$68,"p")</f>
         <v>14</v>
       </c>
-      <c r="N6" s="1">
-        <f>COUNTIFS($B$2:$B$66,"p", $E$2:$E$66,"&lt;&gt;0")</f>
+      <c r="O6" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $F$2:$F$66,"&lt;&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="O6" s="1">
-        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "p", $E$2:$E$66, "&lt;&gt;0")</f>
-        <v>18</v>
-      </c>
       <c r="P6" s="1">
-        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "p", $E$2:$E$66, "&lt;&gt;0")</f>
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>18</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="Q6" s="1">
-        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "p", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="R6" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>24</v>
       </c>
-      <c r="R6" s="14">
+      <c r="S6" s="13">
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>158</v>
       </c>
@@ -936,12 +958,12 @@
       <c r="C7" s="2">
         <v>45</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
       <c r="F7" s="2">
         <v>0</v>
       </c>
@@ -952,41 +974,44 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>23</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="L7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1">
         <v>45</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <f>COUNTIF($B$2:$B$68,"g")</f>
         <v>16</v>
       </c>
-      <c r="N7" s="1">
-        <f>COUNTIFS($B$2:$B$66,"g", $E$2:$E$66,"&lt;&gt;0")</f>
+      <c r="O7" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $F$2:$F$66,"&lt;&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="O7" s="1">
-        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "g", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="P7" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>15</v>
       </c>
-      <c r="P7" s="1">
-        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "g", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="Q7" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="Q7" s="1">
-        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "g", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="R7" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>27</v>
       </c>
-      <c r="R7" s="14">
+      <c r="S7" s="13">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>157</v>
       </c>
@@ -996,57 +1021,60 @@
       <c r="C8" s="11">
         <v>90</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
-      </c>
       <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11">
         <v>7</v>
       </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
       <c r="H8" s="11">
         <v>0</v>
       </c>
       <c r="I8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
         <v>32</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <f>COUNTIF($B$2:$B$68,"y")</f>
         <v>20</v>
       </c>
-      <c r="N8" s="1">
-        <f>COUNTIFS($B$2:$B$66,"y", $E$2:$E$66,"&lt;&gt;0")</f>
-        <v>5</v>
-      </c>
       <c r="O8" s="1">
-        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "y", $E$2:$E$66, "&lt;&gt;0")</f>
+        <f>COUNTIFS($B$2:$B$66,"y", $F$2:$F$66,"&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="P8" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>19.3</v>
       </c>
-      <c r="P8" s="1">
-        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "y", $E$2:$E$66, "&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
       <c r="Q8" s="1">
-        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "y", $E$2:$E$66, "&lt;&gt;0")</f>
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="R8" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>36.5</v>
       </c>
-      <c r="R8" s="14">
+      <c r="S8" s="13">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>141</v>
       </c>
@@ -1056,12 +1084,12 @@
       <c r="C9" s="7">
         <v>32</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="7">
-        <v>0</v>
-      </c>
       <c r="F9" s="7">
         <v>0</v>
       </c>
@@ -1072,41 +1100,44 @@
         <v>0</v>
       </c>
       <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
         <v>40</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="L9" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>16</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <f>COUNTIF($B$2:$B$68,"r")</f>
         <v>2</v>
       </c>
-      <c r="N9" s="1">
-        <f>COUNTIFS($B$2:$B$66,"r", $E$2:$E$66,"&lt;&gt;0")</f>
+      <c r="O9" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $F$2:$F$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O9" s="1">
-        <f>AVERAGEIFS($E$2:$E$66, $B$2:$B$66, "r", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="P9" s="1">
+        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="P9" s="1">
-        <f>_xlfn.MINIFS($E$2:$E$66, $B$2:$B$66, "r", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="Q9" s="1">
+        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="Q9" s="1">
-        <f>_xlfn.MAXIFS($E$2:$E$66, $B$2:$B$66, "r", $E$2:$E$66, "&lt;&gt;0")</f>
+      <c r="R9" s="1">
+        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
         <v>16</v>
       </c>
-      <c r="R9" s="14">
+      <c r="S9" s="13">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>163</v>
       </c>
@@ -1116,12 +1147,12 @@
       <c r="C10" s="2">
         <v>45</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
@@ -1132,10 +1163,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>170</v>
       </c>
@@ -1145,12 +1179,12 @@
       <c r="C11" s="5">
         <v>64</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
       <c r="F11" s="6">
         <v>0</v>
       </c>
@@ -1163,18 +1197,21 @@
       <c r="I11" s="6">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>167</v>
       </c>
@@ -1185,11 +1222,11 @@
         <v>128</v>
       </c>
       <c r="D12" s="9">
+        <v>220</v>
+      </c>
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
       <c r="F12" s="9">
         <v>0</v>
       </c>
@@ -1202,32 +1239,35 @@
       <c r="I12" s="9">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="J12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>101</v>
       </c>
@@ -1238,38 +1278,38 @@
         <v>64</v>
       </c>
       <c r="D13" s="5">
+        <v>108.92</v>
+      </c>
+      <c r="E13" s="5">
         <v>2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5">
         <v>12</v>
       </c>
-      <c r="F13" s="5">
+      <c r="G13" s="5">
         <v>43</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
       <c r="H13" s="5">
         <v>0</v>
       </c>
       <c r="I13" s="5">
         <v>0</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="J13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>128</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <f>COUNTIF($B$2:$B$68,"o")</f>
         <v>5</v>
       </c>
-      <c r="N13" s="1">
-        <f>COUNTIFS($B$2:$B$66,"o", $F$2:$F$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O13" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $G$2:$G$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P13" s="1">
@@ -1278,12 +1318,15 @@
       <c r="Q13" s="1">
         <v>0</v>
       </c>
-      <c r="R13" s="14">
-        <f>N13/M13*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <f>O13/N13*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>35</v>
       </c>
@@ -1294,55 +1337,58 @@
         <v>45</v>
       </c>
       <c r="D14" s="2">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="E14" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="F14" s="2">
         <v>27</v>
       </c>
-      <c r="F14" s="2">
-        <v>5</v>
-      </c>
       <c r="G14" s="2">
+        <v>5</v>
+      </c>
+      <c r="H14" s="2">
         <v>43</v>
       </c>
-      <c r="H14" s="2">
+      <c r="I14" s="2">
         <v>67</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>21</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>90</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <f>COUNTIF($B$2:$B$68,"w")</f>
         <v>8</v>
       </c>
-      <c r="N14" s="1">
-        <f>COUNTIFS($B$2:$B$66,"w", $F$2:$F$66,"&lt;&gt;0")</f>
+      <c r="O14" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $G$2:$G$66,"&lt;&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="O14" s="1">
-        <f>AVERAGEIFS($F2:$F66, $B$2:$B$66, "w", $F2:$F66, "&lt;&gt;0")</f>
+      <c r="P14" s="1">
+        <f>AVERAGEIFS($G2:$G66, $B$2:$B$66, "w", $G2:$G66, "&lt;&gt;0")</f>
         <v>13</v>
       </c>
-      <c r="P14" s="1">
-        <f>_xlfn.MINIFS($F2:$F66, $B$2:$B$66, "w", $F2:$F66, "&lt;&gt;0")</f>
+      <c r="Q14" s="1">
+        <f>_xlfn.MINIFS($G2:$G66, $B$2:$B$66, "w", $G2:$G66, "&lt;&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="Q14" s="1">
-        <f>_xlfn.MAXIFS($F2:$F66, $B$2:$B$66, "w", $F2:$F66, "&lt;&gt;0")</f>
+      <c r="R14" s="1">
+        <f>_xlfn.MAXIFS($G2:$G66, $B$2:$B$66, "w", $G2:$G66, "&lt;&gt;0")</f>
         <v>19</v>
       </c>
-      <c r="R14" s="14">
-        <f t="shared" ref="R14:R18" si="1">N14/M14*100</f>
+      <c r="S14" s="13">
+        <f t="shared" ref="S14:S18" si="1">O14/N14*100</f>
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>52</v>
       </c>
@@ -1353,55 +1399,58 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
+        <v>45.6</v>
+      </c>
+      <c r="E15" s="7">
         <v>2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="F15" s="7">
         <v>36.5</v>
       </c>
-      <c r="F15" s="7">
-        <v>5</v>
-      </c>
       <c r="G15" s="7">
+        <v>5</v>
+      </c>
+      <c r="H15" s="7">
         <v>25</v>
       </c>
-      <c r="H15" s="7">
+      <c r="I15" s="7">
         <v>37</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>64</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <f>COUNTIF($B$2:$B$68,"p")</f>
         <v>14</v>
       </c>
-      <c r="N15" s="1">
-        <f>COUNTIFS($B$2:$B$66,"p", $F$2:$F$66,"&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
       <c r="O15" s="1">
-        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+        <f>COUNTIFS($B$2:$B$66,"p", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="P15" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "p", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>23.75</v>
       </c>
-      <c r="P15" s="1">
-        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+      <c r="Q15" s="1">
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "p", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>13</v>
       </c>
-      <c r="Q15" s="1">
-        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "p", $F$2:$F$66, "&lt;&gt;0")</f>
+      <c r="R15" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "p", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>43</v>
       </c>
-      <c r="R15" s="14">
+      <c r="S15" s="13">
         <f t="shared" si="1"/>
         <v>28.571428571428569</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>146</v>
       </c>
@@ -1411,12 +1460,12 @@
       <c r="C16" s="7">
         <v>32</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7">
         <v>2</v>
       </c>
-      <c r="E16" s="7">
-        <v>0</v>
-      </c>
       <c r="F16" s="7">
         <v>0</v>
       </c>
@@ -1424,43 +1473,46 @@
         <v>0</v>
       </c>
       <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
         <v>32</v>
       </c>
-      <c r="I16" s="7">
+      <c r="J16" s="7">
         <v>2</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L16" s="1">
+      <c r="L16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
         <v>45</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <f>COUNTIF($B$2:$B$68,"g")</f>
         <v>16</v>
       </c>
-      <c r="N16" s="1">
-        <f>COUNTIFS($B$2:$B$66,"g", $F$2:$F$66,"&lt;&gt;0")</f>
-        <v>5</v>
-      </c>
       <c r="O16" s="1">
-        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
+        <f>COUNTIFS($B$2:$B$66,"g", $G$2:$G$66,"&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>24.8</v>
       </c>
-      <c r="P16" s="1">
-        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
-        <v>5</v>
-      </c>
       <c r="Q16" s="1">
-        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "g", $F$2:$F$66, "&lt;&gt;0")</f>
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="R16" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>50</v>
       </c>
-      <c r="R16" s="14">
+      <c r="S16" s="13">
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>156</v>
       </c>
@@ -1470,12 +1522,12 @@
       <c r="C17" s="11">
         <v>90</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="E17" s="11">
-        <v>0</v>
-      </c>
       <c r="F17" s="11">
         <v>0</v>
       </c>
@@ -1488,38 +1540,41 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="1">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="1">
         <v>32</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <f>COUNTIF($B$2:$B$68,"y")</f>
         <v>20</v>
       </c>
-      <c r="N17" s="1">
-        <f>COUNTIFS($B$2:$B$66,"y", $F$2:$F$66,"&lt;&gt;0")</f>
+      <c r="O17" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $G$2:$G$66,"&lt;&gt;0")</f>
         <v>8</v>
       </c>
-      <c r="O17" s="1">
-        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
+      <c r="P17" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>55</v>
       </c>
-      <c r="P17" s="1">
-        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
-        <v>5</v>
-      </c>
       <c r="Q17" s="1">
-        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "y", $F$2:$F$66, "&lt;&gt;0")</f>
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+        <v>5</v>
+      </c>
+      <c r="R17" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>140</v>
       </c>
-      <c r="R17" s="14">
+      <c r="S17" s="13">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>97</v>
       </c>
@@ -1529,12 +1584,12 @@
       <c r="C18" s="5">
         <v>64</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="5">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
       <c r="F18" s="5">
         <v>0</v>
       </c>
@@ -1547,38 +1602,41 @@
       <c r="I18" s="5">
         <v>0</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>16</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <f>COUNTIF($B$2:$B$68,"r")</f>
         <v>2</v>
       </c>
-      <c r="N18" s="1">
-        <f>COUNTIFS($B$2:$B$66,"r", $F$2:$F$66,"&lt;&gt;0")</f>
+      <c r="O18" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $G$2:$G$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O18" s="1">
-        <f>AVERAGEIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
+      <c r="P18" s="1">
+        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>41</v>
       </c>
-      <c r="P18" s="1">
-        <f>_xlfn.MINIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
+      <c r="Q18" s="1">
+        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>41</v>
       </c>
-      <c r="Q18" s="1">
-        <f>_xlfn.MAXIFS($F$2:$F$66, $B$2:$B$66, "r", $F$2:$F$66, "&lt;&gt;0")</f>
+      <c r="R18" s="1">
+        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
         <v>41</v>
       </c>
-      <c r="R18" s="14">
+      <c r="S18" s="13">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>162</v>
       </c>
@@ -1589,25 +1647,28 @@
         <v>45</v>
       </c>
       <c r="D19" s="2">
+        <v>54.05</v>
+      </c>
+      <c r="E19" s="2">
         <v>2</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>50</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>12</v>
       </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>65</v>
       </c>
@@ -1617,36 +1678,39 @@
       <c r="C20" s="7">
         <v>32</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7">
         <v>2</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
       <c r="F20" s="7">
         <v>0</v>
       </c>
       <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
         <v>11</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
       <c r="I20" s="7">
         <v>0</v>
       </c>
-      <c r="K20" s="13" t="s">
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>133</v>
       </c>
@@ -1656,50 +1720,53 @@
       <c r="C21" s="7">
         <v>32</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="7">
+      <c r="F21" s="7">
         <v>25</v>
       </c>
-      <c r="F21" s="7">
+      <c r="G21" s="7">
         <v>133</v>
       </c>
-      <c r="G21" s="7">
+      <c r="H21" s="7">
         <v>96</v>
       </c>
-      <c r="H21" s="7">
+      <c r="I21" s="7">
         <v>29</v>
       </c>
-      <c r="I21" s="7">
+      <c r="J21" s="7">
         <v>7</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>111</v>
       </c>
@@ -1709,12 +1776,12 @@
       <c r="C22" s="5">
         <v>64</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
       <c r="F22" s="6">
         <v>0</v>
       </c>
@@ -1727,21 +1794,21 @@
       <c r="I22" s="6">
         <v>0</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>128</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <f>COUNTIF($B$2:$B$68,"o")</f>
         <v>5</v>
       </c>
-      <c r="N22" s="1">
-        <f>COUNTIFS($B$2:$B$66,"o", $G$2:$G$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O22" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $H$2:$H$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P22" s="1">
@@ -1750,12 +1817,15 @@
       <c r="Q22" s="1">
         <v>0</v>
       </c>
-      <c r="R22" s="14">
-        <f>N22/M22*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <f>O22/N22*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>6</v>
       </c>
@@ -1765,12 +1835,12 @@
       <c r="C23" s="9">
         <v>128</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="9">
         <v>3</v>
       </c>
-      <c r="E23" s="9">
-        <v>0</v>
-      </c>
       <c r="F23" s="9">
         <v>0</v>
       </c>
@@ -1783,21 +1853,21 @@
       <c r="I23" s="9">
         <v>0</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="J23" s="9">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>90</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <f>COUNTIF($B$2:$B$68,"w")</f>
         <v>8</v>
       </c>
-      <c r="N23" s="1">
-        <f>COUNTIFS($B$2:$B$66,"w", $G$2:$G$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O23" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $H$2:$H$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P23" s="1">
@@ -1806,12 +1876,15 @@
       <c r="Q23" s="1">
         <v>0</v>
       </c>
-      <c r="R23" s="14">
-        <f t="shared" ref="R23:R27" si="2">N23/M23*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <f t="shared" ref="S23:S27" si="2">O23/N23*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -1821,12 +1894,12 @@
       <c r="C24" s="2">
         <v>45</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="2">
         <v>3</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
       <c r="F24" s="2">
         <v>0</v>
       </c>
@@ -1839,21 +1912,21 @@
       <c r="I24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>64</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <f>COUNTIF($B$2:$B$68,"p")</f>
         <v>14</v>
       </c>
-      <c r="N24" s="1">
-        <f>COUNTIFS($B$2:$B$66,"p", $G$2:$G$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O24" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $H$2:$H$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P24" s="1">
@@ -1862,12 +1935,15 @@
       <c r="Q24" s="1">
         <v>0</v>
       </c>
-      <c r="R24" s="14">
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>127</v>
       </c>
@@ -1877,12 +1953,12 @@
       <c r="C25" s="7">
         <v>32</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7">
         <v>3</v>
       </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
       <c r="F25" s="7">
         <v>0</v>
       </c>
@@ -1895,38 +1971,41 @@
       <c r="I25" s="7">
         <v>0</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="1">
         <v>45</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <f>COUNTIF($B$2:$B$68,"g")</f>
         <v>16</v>
       </c>
-      <c r="N25" s="1">
-        <f>COUNTIFS($B$2:$B$66,"g", $G$2:$G$66,"&lt;&gt;0")</f>
+      <c r="O25" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $H$2:$H$66,"&lt;&gt;0")</f>
         <v>3</v>
       </c>
-      <c r="O25" s="1">
-        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="P25" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>38</v>
       </c>
-      <c r="P25" s="1">
-        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="Q25" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>12</v>
       </c>
-      <c r="Q25" s="1">
-        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "g", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="R25" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>59</v>
       </c>
-      <c r="R25" s="14">
+      <c r="S25" s="13">
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>53</v>
       </c>
@@ -1936,12 +2015,12 @@
       <c r="C26" s="7">
         <v>32</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7">
         <v>3</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
       <c r="F26" s="7">
         <v>0</v>
       </c>
@@ -1954,38 +2033,41 @@
       <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="1">
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="1">
         <v>32</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <f>COUNTIF($B$2:$B$68,"y")</f>
         <v>20</v>
       </c>
-      <c r="N26" s="1">
-        <f>COUNTIFS($B$2:$B$66,"y", $G$2:$G$66,"&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
       <c r="O26" s="1">
-        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+        <f>COUNTIFS($B$2:$B$66,"y", $H$2:$H$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="P26" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>35.5</v>
       </c>
-      <c r="P26" s="1">
-        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="Q26" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="Q26" s="1">
-        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "y", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="R26" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>96</v>
       </c>
-      <c r="R26" s="14">
+      <c r="S26" s="13">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>22</v>
       </c>
@@ -1995,12 +2077,12 @@
       <c r="C27" s="11">
         <v>90</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="11">
         <v>3</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
-      </c>
       <c r="F27" s="11">
         <v>0</v>
       </c>
@@ -2013,38 +2095,41 @@
       <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>16</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <f>COUNTIF($B$2:$B$68,"r")</f>
         <v>2</v>
       </c>
-      <c r="N27" s="1">
-        <f>COUNTIFS($B$2:$B$66,"r", $G$2:$G$66,"&lt;&gt;0")</f>
+      <c r="O27" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $H$2:$H$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O27" s="1">
-        <f>AVERAGEIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="P27" s="1">
+        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>101</v>
       </c>
-      <c r="P27" s="1">
-        <f>_xlfn.MINIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="Q27" s="1">
+        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>101</v>
       </c>
-      <c r="Q27" s="1">
-        <f>_xlfn.MAXIFS($G$2:$G$66, $B$2:$B$66, "r", $G$2:$G$66, "&lt;&gt;0")</f>
+      <c r="R27" s="1">
+        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
         <v>101</v>
       </c>
-      <c r="R27" s="14">
+      <c r="S27" s="13">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
         <v>99</v>
       </c>
@@ -2054,12 +2139,12 @@
       <c r="C28" s="5">
         <v>64</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5">
         <v>3</v>
       </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
       <c r="F28" s="5">
         <v>0</v>
       </c>
@@ -2072,8 +2157,11 @@
       <c r="I28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>38</v>
       </c>
@@ -2083,12 +2171,12 @@
       <c r="C29" s="2">
         <v>45</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2">
         <v>3</v>
       </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
       <c r="F29" s="2">
         <v>0</v>
       </c>
@@ -2101,18 +2189,21 @@
       <c r="I29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="13" t="s">
+      <c r="J29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>135</v>
       </c>
@@ -2122,12 +2213,12 @@
       <c r="C30" s="7">
         <v>32</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
       <c r="F30" s="7">
         <v>0</v>
       </c>
@@ -2140,32 +2231,35 @@
       <c r="I30" s="7">
         <v>0</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
         <v>166</v>
       </c>
@@ -2175,12 +2269,12 @@
       <c r="C31" s="12">
         <v>16</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="12">
         <v>3</v>
       </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
       <c r="F31" s="12">
         <v>0</v>
       </c>
@@ -2193,21 +2287,21 @@
       <c r="I31" s="12">
         <v>0</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>128</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <f>COUNTIF($B$2:$B$68,"o")</f>
         <v>5</v>
       </c>
-      <c r="N31" s="1">
-        <f>COUNTIFS($B$2:$B$66,"o", $H$2:$H$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O31" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $I$2:$I$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P31" s="1">
@@ -2216,12 +2310,15 @@
       <c r="Q31" s="1">
         <v>0</v>
       </c>
-      <c r="R31" s="14">
-        <f>N31/M31*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="13">
+        <f>O31/N31*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2231,39 +2328,39 @@
       <c r="C32" s="5">
         <v>64</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="5">
         <v>3</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
       <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="5">
         <v>13</v>
       </c>
-      <c r="G32" s="5">
-        <v>0</v>
-      </c>
       <c r="H32" s="5">
         <v>0</v>
       </c>
       <c r="I32" s="5">
         <v>0</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>90</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <f>COUNTIF($B$2:$B$68,"w")</f>
         <v>8</v>
       </c>
-      <c r="N32" s="1">
-        <f>COUNTIFS($B$2:$B$66,"w", $H$2:$H$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O32" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $I$2:$I$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P32" s="1">
@@ -2272,12 +2369,15 @@
       <c r="Q32" s="1">
         <v>0</v>
       </c>
-      <c r="R32" s="14">
-        <f t="shared" ref="R32:R36" si="3">N32/M32*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
+        <f t="shared" ref="S32:S36" si="3">O32/N32*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>160</v>
       </c>
@@ -2287,56 +2387,59 @@
       <c r="C33" s="2">
         <v>45</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
       <c r="F33" s="2">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
         <v>6</v>
       </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
       <c r="H33" s="2">
         <v>0</v>
       </c>
       <c r="I33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="5" t="s">
+      <c r="J33" s="2">
+        <v>0</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>64</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <f>COUNTIF($B$2:$B$68,"p")</f>
         <v>14</v>
       </c>
-      <c r="N33" s="1">
-        <f>COUNTIFS($B$2:$B$66,"p", $H$2:$H$66,"&lt;&gt;0")</f>
+      <c r="O33" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $I$2:$I$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O33" s="1">
-        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "p", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="P33" s="1">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>30</v>
       </c>
-      <c r="P33" s="1">
-        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "p", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="Q33" s="1">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>30</v>
       </c>
-      <c r="Q33" s="1">
-        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "p", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="R33" s="1">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>30</v>
       </c>
-      <c r="R33" s="14">
+      <c r="S33" s="13">
         <f t="shared" si="3"/>
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>155</v>
       </c>
@@ -2346,15 +2449,15 @@
       <c r="C34" s="11">
         <v>90</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="11">
         <v>3</v>
       </c>
-      <c r="E34" s="11">
+      <c r="F34" s="11">
         <v>102</v>
       </c>
-      <c r="F34" s="11">
-        <v>0</v>
-      </c>
       <c r="G34" s="11">
         <v>0</v>
       </c>
@@ -2364,38 +2467,41 @@
       <c r="I34" s="11">
         <v>0</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L34" s="1">
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="1">
         <v>45</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <f>COUNTIF($B$2:$B$68,"g")</f>
         <v>16</v>
       </c>
-      <c r="N34" s="1">
-        <f>COUNTIFS($B$2:$B$66,"g", $H$2:$H$66,"&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
       <c r="O34" s="1">
-        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
+        <f>COUNTIFS($B$2:$B$66,"g", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="P34" s="1">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>55.25</v>
       </c>
-      <c r="P34" s="1">
-        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="Q34" s="1">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>10</v>
       </c>
-      <c r="Q34" s="1">
-        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "g", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="R34" s="1">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>116</v>
       </c>
-      <c r="R34" s="14">
+      <c r="S34" s="13">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>137</v>
       </c>
@@ -2405,56 +2511,59 @@
       <c r="C35" s="7">
         <v>32</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="7">
         <v>3</v>
       </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
       <c r="F35" s="7">
+        <v>0</v>
+      </c>
+      <c r="G35" s="7">
         <v>60</v>
       </c>
-      <c r="G35" s="7">
+      <c r="H35" s="7">
         <v>10</v>
       </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
       <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
         <v>8</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L35" s="1">
+      <c r="L35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="1">
         <v>32</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <f>COUNTIF($B$2:$B$68,"y")</f>
         <v>20</v>
       </c>
-      <c r="N35" s="1">
-        <f>COUNTIFS($B$2:$B$66,"y", $H$2:$H$66,"&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
       <c r="O35" s="1">
-        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
+        <f>COUNTIFS($B$2:$B$66,"y", $I$2:$I$66,"&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="P35" s="1">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>26.75</v>
       </c>
-      <c r="P35" s="1">
-        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="Q35" s="1">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>9</v>
       </c>
-      <c r="Q35" s="1">
-        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "y", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="R35" s="1">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>37</v>
       </c>
-      <c r="R35" s="14">
+      <c r="S35" s="13">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>141</v>
       </c>
@@ -2464,12 +2573,12 @@
       <c r="C36" s="7">
         <v>32</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
       <c r="F36" s="7">
         <v>0</v>
       </c>
@@ -2482,38 +2591,41 @@
       <c r="I36" s="7">
         <v>0</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="L36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>16</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <f>COUNTIF($B$2:$B$68,"r")</f>
         <v>2</v>
       </c>
-      <c r="N36" s="1">
-        <f>COUNTIFS($B$2:$B$66,"r", $H$2:$H$66,"&lt;&gt;0")</f>
+      <c r="O36" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $I$2:$I$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O36" s="1">
-        <f>AVERAGEIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="P36" s="1">
+        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "r", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>86</v>
       </c>
-      <c r="P36" s="1">
-        <f>_xlfn.MINIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="Q36" s="1">
+        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "r", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>86</v>
       </c>
-      <c r="Q36" s="1">
-        <f>_xlfn.MAXIFS($H$2:$H$66, $B$2:$B$66, "r", $H$2:$H$66, "&lt;&gt;0")</f>
+      <c r="R36" s="1">
+        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "r", $I$2:$I$66, "&lt;&gt;0")</f>
         <v>86</v>
       </c>
-      <c r="R36" s="14">
+      <c r="S36" s="13">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>94</v>
       </c>
@@ -2523,12 +2635,12 @@
       <c r="C37" s="5">
         <v>64</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="6">
         <v>3</v>
       </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
       <c r="F37" s="6">
         <v>0</v>
       </c>
@@ -2541,8 +2653,11 @@
       <c r="I37" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>8</v>
       </c>
@@ -2553,10 +2668,10 @@
         <v>128</v>
       </c>
       <c r="D38" s="9">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="E38" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="9">
         <v>0</v>
@@ -2570,18 +2685,21 @@
       <c r="I38" s="9">
         <v>0</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="J38" s="9">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="13"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>98</v>
       </c>
@@ -2591,11 +2709,11 @@
       <c r="C39" s="2">
         <v>45</v>
       </c>
-      <c r="D39" s="2">
-        <v>4</v>
+      <c r="D39" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E39" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F39" s="2">
         <v>0</v>
@@ -2609,32 +2727,35 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="J39" s="2">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="Q39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="R39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="S39" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>11</v>
       </c>
@@ -2645,10 +2766,10 @@
         <v>90</v>
       </c>
       <c r="D40" s="11">
-        <v>4</v>
+        <v>127.22</v>
       </c>
       <c r="E40" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40" s="11">
         <v>0</v>
@@ -2662,21 +2783,21 @@
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="L40" s="1">
+      <c r="M40" s="1">
         <v>128</v>
       </c>
-      <c r="M40" s="1">
+      <c r="N40" s="1">
         <f>COUNTIF($B$2:$B$68,"o")</f>
         <v>5</v>
       </c>
-      <c r="N40" s="1">
-        <f>COUNTIFS($B$2:$B$66,"o", $I$2:$I$66,"&lt;&gt;0")</f>
-        <v>0</v>
-      </c>
       <c r="O40" s="1">
+        <f>COUNTIFS($B$2:$B$66,"o", $J$2:$J$66,"&lt;&gt;0")</f>
         <v>0</v>
       </c>
       <c r="P40" s="1">
@@ -2685,12 +2806,15 @@
       <c r="Q40" s="1">
         <v>0</v>
       </c>
-      <c r="R40" s="14">
-        <f>N40/M40*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="R40" s="1">
+        <v>0</v>
+      </c>
+      <c r="S40" s="13">
+        <f>O40/N40*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
         <v>82</v>
       </c>
@@ -2700,11 +2824,11 @@
       <c r="C41" s="7">
         <v>32</v>
       </c>
-      <c r="D41" s="7">
-        <v>4</v>
+      <c r="D41" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E41" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F41" s="7">
         <v>0</v>
@@ -2718,38 +2842,41 @@
       <c r="I41" s="7">
         <v>0</v>
       </c>
-      <c r="K41" s="11" t="s">
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="1">
+      <c r="M41" s="1">
         <v>90</v>
       </c>
-      <c r="M41" s="1">
+      <c r="N41" s="1">
         <f>COUNTIF($B$2:$B$68,"w")</f>
         <v>8</v>
       </c>
-      <c r="N41" s="1">
-        <f>COUNTIFS($B$2:$B$66,"w", $I$2:$I$66,"&lt;&gt;0")</f>
+      <c r="O41" s="1">
+        <f>COUNTIFS($B$2:$B$66,"w", $J$2:$J$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O41" s="15">
-        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "w", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="P41" s="1">
+        <f>AVERAGEIFS($J$2:$J$66, $B$2:$B$66, "w", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>94</v>
       </c>
-      <c r="P41" s="15">
-        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "w", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="Q41" s="1">
+        <f>_xlfn.MINIFS($J$2:$J$66, $B$2:$B$66, "w", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>94</v>
       </c>
-      <c r="Q41" s="15">
-        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "w", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="R41" s="1">
+        <f>_xlfn.MAXIFS($J$2:$J$66, $B$2:$B$66, "w", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>94</v>
       </c>
-      <c r="R41" s="14">
-        <f t="shared" ref="R41:R45" si="4">N41/M41*100</f>
+      <c r="S41" s="13">
+        <f t="shared" ref="S41:S45" si="4">O41/N41*100</f>
         <v>12.5</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="5">
         <v>18</v>
       </c>
@@ -2759,11 +2886,11 @@
       <c r="C42" s="5">
         <v>64</v>
       </c>
-      <c r="D42" s="5">
-        <v>4</v>
+      <c r="D42" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E42" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -2777,38 +2904,41 @@
       <c r="I42" s="5">
         <v>0</v>
       </c>
-      <c r="K42" s="5" t="s">
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L42" s="1">
+      <c r="M42" s="1">
         <v>64</v>
       </c>
-      <c r="M42" s="1">
+      <c r="N42" s="1">
         <f>COUNTIF($B$2:$B$68,"p")</f>
         <v>14</v>
       </c>
-      <c r="N42" s="1">
-        <f>COUNTIFS($B$2:$B$66,"p", $I$2:$I$66,"&lt;&gt;0")</f>
+      <c r="O42" s="1">
+        <f>COUNTIFS($B$2:$B$66,"p", $J$2:$J$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O42" s="15">
-        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="P42" s="15">
-        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="Q42" s="15">
-        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "p", $I$2:$I$66, "&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="R42" s="14">
+      <c r="P42" s="1">
+        <f>AVERAGEIFS($J$2:$J$66, $B$2:$B$66, "p", $J$2:$J$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="Q42" s="1">
+        <f>_xlfn.MINIFS($J$2:$J$66, $B$2:$B$66, "p", $J$2:$J$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="R42" s="1">
+        <f>_xlfn.MAXIFS($J$2:$J$66, $B$2:$B$66, "p", $J$2:$J$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="S42" s="13">
         <f t="shared" si="4"/>
         <v>7.1428571428571423</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>85</v>
       </c>
@@ -2819,10 +2949,10 @@
         <v>32</v>
       </c>
       <c r="D43" s="7">
-        <v>4</v>
+        <v>43.73</v>
       </c>
       <c r="E43" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F43" s="7">
         <v>0</v>
@@ -2836,38 +2966,41 @@
       <c r="I43" s="7">
         <v>0</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="1">
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="1">
         <v>45</v>
       </c>
-      <c r="M43" s="1">
+      <c r="N43" s="1">
         <f>COUNTIF($B$2:$B$68,"g")</f>
         <v>16</v>
       </c>
-      <c r="N43" s="1">
-        <f>COUNTIFS($B$2:$B$66,"g", $I$2:$I$66,"&lt;&gt;0")</f>
+      <c r="O43" s="1">
+        <f>COUNTIFS($B$2:$B$66,"g", $J$2:$J$66,"&lt;&gt;0")</f>
         <v>7</v>
       </c>
-      <c r="O43" s="14">
-        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="P43" s="13">
+        <f>AVERAGEIFS($J$2:$J$66, $B$2:$B$66, "g", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>19.428571428571427</v>
       </c>
-      <c r="P43" s="14">
-        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
-        <v>4</v>
-      </c>
-      <c r="Q43" s="14">
-        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "g", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="Q43" s="13">
+        <f>_xlfn.MINIFS($J$2:$J$66, $B$2:$B$66, "g", $J$2:$J$66, "&lt;&gt;0")</f>
+        <v>4</v>
+      </c>
+      <c r="R43" s="13">
+        <f>_xlfn.MAXIFS($J$2:$J$66, $B$2:$B$66, "g", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>30</v>
       </c>
-      <c r="R43" s="14">
+      <c r="S43" s="13">
         <f t="shared" si="4"/>
         <v>43.75</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>159</v>
       </c>
@@ -2878,10 +3011,10 @@
         <v>45</v>
       </c>
       <c r="D44" s="2">
-        <v>4</v>
+        <v>54.11</v>
       </c>
       <c r="E44" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="2">
         <v>0</v>
@@ -2895,38 +3028,41 @@
       <c r="I44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="L44" s="1">
+      <c r="J44" s="2">
+        <v>0</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="1">
         <v>32</v>
       </c>
-      <c r="M44" s="1">
+      <c r="N44" s="1">
         <f>COUNTIF($B$2:$B$68,"y")</f>
         <v>20</v>
       </c>
-      <c r="N44" s="1">
-        <f>COUNTIFS($B$2:$B$66,"y", $I$2:$I$66,"&lt;&gt;0")</f>
+      <c r="O44" s="1">
+        <f>COUNTIFS($B$2:$B$66,"y", $J$2:$J$66,"&lt;&gt;0")</f>
         <v>6</v>
       </c>
-      <c r="O44" s="14">
-        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="P44" s="13">
+        <f>AVERAGEIFS($J$2:$J$66, $B$2:$B$66, "y", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>107.83333333333333</v>
       </c>
-      <c r="P44" s="14">
-        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="Q44" s="13">
+        <f>_xlfn.MINIFS($J$2:$J$66, $B$2:$B$66, "y", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>2</v>
       </c>
-      <c r="Q44" s="14">
-        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "y", $I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="R44" s="13">
+        <f>_xlfn.MAXIFS($J$2:$J$66, $B$2:$B$66, "y", $J$2:$J$66, "&lt;&gt;0")</f>
         <v>534</v>
       </c>
-      <c r="R44" s="14">
+      <c r="S44" s="13">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -2936,11 +3072,11 @@
       <c r="C45" s="5">
         <v>64</v>
       </c>
-      <c r="D45" s="5">
-        <v>4</v>
+      <c r="D45" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E45" s="5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -2949,43 +3085,46 @@
         <v>0</v>
       </c>
       <c r="H45" s="5">
+        <v>0</v>
+      </c>
+      <c r="I45" s="5">
         <v>30</v>
       </c>
-      <c r="I45" s="5">
-        <v>0</v>
-      </c>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="5">
+        <v>0</v>
+      </c>
+      <c r="L45" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L45" s="1">
+      <c r="M45" s="1">
         <v>16</v>
       </c>
-      <c r="M45" s="1">
+      <c r="N45" s="1">
         <f>COUNTIF($B$2:$B$68,"r")</f>
         <v>2</v>
       </c>
-      <c r="N45" s="1">
-        <f>COUNTIFS($B$2:$B$66,"r", $I$2:$I$66,"&lt;&gt;0")</f>
+      <c r="O45" s="1">
+        <f>COUNTIFS($B$2:$B$66,"r", $J$2:$J$66,"&lt;&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="O45" s="15">
-        <f>AVERAGEIFS($I$2:$I$66, $B$2:$B$66, "r",$I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="P45" s="1">
+        <f>AVERAGEIFS($J$2:$J$66, $B$2:$B$66, "r",$J$2:$J$66, "&lt;&gt;0")</f>
         <v>95</v>
       </c>
-      <c r="P45" s="15">
-        <f>_xlfn.MINIFS($I$2:$I$66, $B$2:$B$66, "r",$I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="Q45" s="1">
+        <f>_xlfn.MINIFS($J$2:$J$66, $B$2:$B$66, "r",$J$2:$J$66, "&lt;&gt;0")</f>
         <v>95</v>
       </c>
-      <c r="Q45" s="15">
-        <f>_xlfn.MAXIFS($I$2:$I$66, $B$2:$B$66, "r",$I$2:$I$66, "&lt;&gt;0")</f>
+      <c r="R45" s="1">
+        <f>_xlfn.MAXIFS($J$2:$J$66, $B$2:$B$66, "r",$J$2:$J$66, "&lt;&gt;0")</f>
         <v>95</v>
       </c>
-      <c r="R45" s="14">
+      <c r="S45" s="13">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>118</v>
       </c>
@@ -2995,26 +3134,29 @@
       <c r="C46" s="7">
         <v>32</v>
       </c>
-      <c r="D46" s="7">
-        <v>4</v>
+      <c r="D46" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E46" s="7">
+        <v>4</v>
+      </c>
+      <c r="F46" s="7">
         <v>14</v>
       </c>
-      <c r="F46" s="7">
+      <c r="G46" s="7">
         <v>140</v>
       </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
       <c r="H46" s="7">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
         <v>9</v>
       </c>
-      <c r="I46" s="7">
+      <c r="J46" s="7">
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
         <v>165</v>
       </c>
@@ -3024,26 +3166,29 @@
       <c r="C47" s="12">
         <v>16</v>
       </c>
-      <c r="D47" s="12">
-        <v>4</v>
+      <c r="D47" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="E47" s="12">
+        <v>4</v>
+      </c>
+      <c r="F47" s="12">
         <v>16</v>
       </c>
-      <c r="F47" s="12">
+      <c r="G47" s="12">
         <v>41</v>
       </c>
-      <c r="G47" s="12">
+      <c r="H47" s="12">
         <v>101</v>
       </c>
-      <c r="H47" s="12">
+      <c r="I47" s="12">
         <v>86</v>
       </c>
-      <c r="I47" s="12">
+      <c r="J47" s="12">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>164</v>
       </c>
@@ -3053,26 +3198,29 @@
       <c r="C48" s="2">
         <v>45</v>
       </c>
-      <c r="D48" s="4">
-        <v>4</v>
+      <c r="D48" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E48" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4">
         <v>39</v>
       </c>
-      <c r="G48" s="4">
+      <c r="H48" s="4">
         <v>59</v>
       </c>
-      <c r="H48" s="4">
+      <c r="I48" s="4">
         <v>116</v>
       </c>
-      <c r="I48" s="4">
+      <c r="J48" s="4">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>168</v>
       </c>
@@ -3083,10 +3231,10 @@
         <v>128</v>
       </c>
       <c r="D49" s="9">
-        <v>5</v>
+        <v>196</v>
       </c>
       <c r="E49" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F49" s="9">
         <v>0</v>
@@ -3100,8 +3248,11 @@
       <c r="I49" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="5">
         <v>17</v>
       </c>
@@ -3111,11 +3262,11 @@
       <c r="C50" s="5">
         <v>64</v>
       </c>
-      <c r="D50" s="5">
-        <v>5</v>
+      <c r="D50" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E50" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -3127,10 +3278,13 @@
         <v>0</v>
       </c>
       <c r="I50" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>150</v>
       </c>
@@ -3141,25 +3295,28 @@
         <v>90</v>
       </c>
       <c r="D51" s="11">
-        <v>5</v>
+        <v>108.42</v>
       </c>
       <c r="E51" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F51" s="11">
+        <v>0</v>
+      </c>
+      <c r="G51" s="11">
         <v>19</v>
       </c>
-      <c r="G51" s="11">
-        <v>0</v>
-      </c>
       <c r="H51" s="11">
         <v>0</v>
       </c>
       <c r="I51" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>132</v>
       </c>
@@ -3169,11 +3326,11 @@
       <c r="C52" s="2">
         <v>45</v>
       </c>
-      <c r="D52" s="2">
-        <v>5</v>
+      <c r="D52" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E52" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -3187,8 +3344,11 @@
       <c r="I52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>161</v>
       </c>
@@ -3198,26 +3358,29 @@
       <c r="C53" s="2">
         <v>45</v>
       </c>
-      <c r="D53" s="2">
-        <v>5</v>
+      <c r="D53" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E53" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
         <v>24</v>
       </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
       <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
         <v>28</v>
       </c>
-      <c r="I53" s="2">
+      <c r="J53" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
         <v>145</v>
       </c>
@@ -3227,26 +3390,29 @@
       <c r="C54" s="7">
         <v>32</v>
       </c>
-      <c r="D54" s="7">
-        <v>5</v>
+      <c r="D54" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E54" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
         <v>30</v>
       </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
       <c r="H54" s="7">
         <v>0</v>
       </c>
       <c r="I54" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>107</v>
       </c>
@@ -3257,10 +3423,10 @@
         <v>45</v>
       </c>
       <c r="D55" s="2">
-        <v>5</v>
+        <v>52.94</v>
       </c>
       <c r="E55" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -3274,8 +3440,11 @@
       <c r="I55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="5">
         <v>105</v>
       </c>
@@ -3285,11 +3454,11 @@
       <c r="C56" s="5">
         <v>64</v>
       </c>
-      <c r="D56" s="5">
-        <v>5</v>
+      <c r="D56" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="E56" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
@@ -3303,8 +3472,11 @@
       <c r="I56" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>91</v>
       </c>
@@ -3314,11 +3486,11 @@
       <c r="C57" s="2">
         <v>45</v>
       </c>
-      <c r="D57" s="2">
-        <v>5</v>
+      <c r="D57" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E57" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2">
         <v>0</v>
@@ -3332,8 +3504,11 @@
       <c r="I57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
         <v>69</v>
       </c>
@@ -3343,11 +3518,11 @@
       <c r="C58" s="7">
         <v>32</v>
       </c>
-      <c r="D58" s="7">
-        <v>5</v>
+      <c r="D58" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E58" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58" s="7">
         <v>0</v>
@@ -3361,8 +3536,11 @@
       <c r="I58" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>152</v>
       </c>
@@ -3373,10 +3551,10 @@
         <v>90</v>
       </c>
       <c r="D59" s="11">
-        <v>5</v>
+        <v>91.54</v>
       </c>
       <c r="E59" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F59" s="11">
         <v>0</v>
@@ -3390,8 +3568,11 @@
       <c r="I59" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>121</v>
       </c>
@@ -3401,11 +3582,11 @@
       <c r="C60" s="2">
         <v>45</v>
       </c>
-      <c r="D60" s="2">
-        <v>5</v>
+      <c r="D60" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E60" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F60" s="2">
         <v>0</v>
@@ -3414,13 +3595,16 @@
         <v>0</v>
       </c>
       <c r="H60" s="2">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2">
         <v>10</v>
       </c>
-      <c r="I60" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
         <v>61</v>
       </c>
@@ -3430,11 +3614,11 @@
       <c r="C61" s="7">
         <v>32</v>
       </c>
-      <c r="D61" s="7">
-        <v>5</v>
+      <c r="D61" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E61" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -3448,8 +3632,11 @@
       <c r="I61" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
         <v>146</v>
       </c>
@@ -3459,26 +3646,29 @@
       <c r="C62" s="7">
         <v>32</v>
       </c>
-      <c r="D62" s="7">
-        <v>5</v>
+      <c r="D62" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E62" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
         <v>20</v>
       </c>
-      <c r="G62" s="7">
-        <v>0</v>
-      </c>
       <c r="H62" s="7">
         <v>0</v>
       </c>
       <c r="I62" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="7">
         <v>45</v>
       </c>
@@ -3489,25 +3679,28 @@
         <v>32</v>
       </c>
       <c r="D63" s="7">
-        <v>5</v>
+        <v>29.55</v>
       </c>
       <c r="E63" s="7">
+        <v>5</v>
+      </c>
+      <c r="F63" s="7">
         <v>17</v>
       </c>
-      <c r="F63" s="7">
+      <c r="G63" s="7">
         <v>25</v>
       </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
       <c r="H63" s="7">
         <v>0</v>
       </c>
       <c r="I63" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3517,26 +3710,29 @@
       <c r="C64" s="7">
         <v>32</v>
       </c>
-      <c r="D64" s="7">
-        <v>5</v>
+      <c r="D64" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E64" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" s="7">
+        <v>4</v>
+      </c>
+      <c r="G64" s="7">
         <v>27</v>
       </c>
-      <c r="G64" s="7">
-        <v>0</v>
-      </c>
       <c r="H64" s="7">
         <v>0</v>
       </c>
       <c r="I64" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
         <v>96</v>
       </c>
@@ -3547,25 +3743,28 @@
         <v>64</v>
       </c>
       <c r="D65" s="5">
-        <v>5</v>
+        <v>86.98</v>
       </c>
       <c r="E65" s="5">
+        <v>5</v>
+      </c>
+      <c r="F65" s="5">
         <v>24</v>
       </c>
-      <c r="F65" s="5">
+      <c r="G65" s="5">
         <v>20</v>
       </c>
-      <c r="G65" s="5">
-        <v>0</v>
-      </c>
       <c r="H65" s="5">
         <v>0</v>
       </c>
       <c r="I65" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="5">
         <v>12</v>
       </c>
@@ -3576,25 +3775,28 @@
         <v>64</v>
       </c>
       <c r="D66" s="5">
-        <v>5</v>
+        <v>84.2</v>
       </c>
       <c r="E66" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F66" s="5">
+        <v>0</v>
+      </c>
+      <c r="G66" s="5">
         <v>19</v>
       </c>
-      <c r="G66" s="5">
-        <v>0</v>
-      </c>
       <c r="H66" s="5">
         <v>0</v>
       </c>
       <c r="I66" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
         <v>74</v>
       </c>
@@ -3604,11 +3806,9 @@
       <c r="C67" s="7">
         <v>32</v>
       </c>
-      <c r="D67" s="7">
-        <v>5</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>18</v>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7">
+        <v>5</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>18</v>
@@ -3617,13 +3817,16 @@
         <v>18</v>
       </c>
       <c r="H67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I67" s="7">
+      <c r="J67" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>51</v>
       </c>
@@ -3633,11 +3836,9 @@
       <c r="C68" s="10">
         <v>32</v>
       </c>
-      <c r="D68" s="10">
-        <v>5</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>18</v>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10">
+        <v>5</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>18</v>
@@ -3646,22 +3847,25 @@
         <v>18</v>
       </c>
       <c r="H68" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I68" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G69" s="1"/>
+      <c r="J68" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="L2:S2"/>
+    <mergeCell ref="L11:S11"/>
+    <mergeCell ref="L20:S20"/>
+    <mergeCell ref="L29:S29"/>
+    <mergeCell ref="L38:S38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hydrophones/Calibration/flow_experiment_tracers.xlsx
+++ b/Hydrophones/Calibration/flow_experiment_tracers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Hydrophones\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA85B1-7963-4C93-A92A-9515E0295A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B20897-B81E-4FE0-BA4E-E69A31A0D3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B073A66E-6BB5-492B-8275-ACCE89EFB9F4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B073A66E-6BB5-492B-8275-ACCE89EFB9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Flood1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="33">
   <si>
     <t>Tracer ID</t>
   </si>
@@ -133,13 +133,24 @@
   <si>
     <t>B-axis (mm)</t>
   </si>
+  <si>
+    <t>Max Size (mm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -221,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,6 +276,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,8 +296,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF8F8F8"/>
       <color rgb="FFFFCCCC"/>
-      <color rgb="FFF8F8F8"/>
       <color rgb="FFFFFF99"/>
       <color rgb="FFFFCC99"/>
     </mruColors>
@@ -609,31 +632,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D864ED87-307D-4916-B61D-7A986C44CDD6}">
   <dimension ref="A1:T69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="M62" sqref="M62"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="1"/>
-    <col min="3" max="3" width="12.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="1"/>
-    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="16.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="1"/>
     <col min="13" max="13" width="11" style="1" customWidth="1"/>
-    <col min="14" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="13.109375" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="13.140625" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.33203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,7 +689,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>7</v>
       </c>
@@ -675,8 +699,8 @@
       <c r="C2" s="8">
         <v>128</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
+      <c r="D2" s="8">
+        <v>165</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -706,8 +730,12 @@
       <c r="Q2" s="14"/>
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" s="16">
+        <f>MAX(T5:T9)</f>
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>151</v>
       </c>
@@ -717,8 +745,8 @@
       <c r="C3" s="11">
         <v>90</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>18</v>
+      <c r="D3" s="11">
+        <v>104.6</v>
       </c>
       <c r="E3" s="11">
         <v>1</v>
@@ -762,8 +790,11 @@
       <c r="S3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>89</v>
       </c>
@@ -773,8 +804,8 @@
       <c r="C4" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
+      <c r="D4" s="2">
+        <v>68.78</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -821,8 +852,11 @@
         <f>O4/N4*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T4" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>149</v>
       </c>
@@ -883,9 +917,12 @@
         <f t="shared" ref="S5:S9" si="0">O5/N5*100</f>
         <v>12.5</v>
       </c>
-      <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T5" s="15">
+        <f>MAX(D3,D8)</f>
+        <v>104.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>23</v>
       </c>
@@ -895,8 +932,8 @@
       <c r="C6" s="5">
         <v>64</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
+      <c r="D6" s="5">
+        <v>101.41</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -946,9 +983,12 @@
         <f t="shared" si="0"/>
         <v>14.285714285714285</v>
       </c>
-      <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T6" s="15">
+        <f>MAX(D6)</f>
+        <v>101.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>158</v>
       </c>
@@ -958,8 +998,8 @@
       <c r="C7" s="2">
         <v>45</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
+      <c r="D7" s="2">
+        <v>49.67</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1009,9 +1049,12 @@
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T7" s="15">
+        <f>MAX(D4,D7,D10)</f>
+        <v>68.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>157</v>
       </c>
@@ -1021,8 +1064,8 @@
       <c r="C8" s="11">
         <v>90</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>18</v>
+      <c r="D8" s="11">
+        <v>88.72</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -1072,9 +1115,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T8" s="15"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>141</v>
       </c>
@@ -1135,9 +1178,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T9" s="15"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>163</v>
       </c>
@@ -1147,8 +1190,8 @@
       <c r="C10" s="2">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
+      <c r="D10" s="2">
+        <v>51.56</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
@@ -1169,7 +1212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>170</v>
       </c>
@@ -1210,8 +1253,12 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T11" s="16">
+        <f>MAX(T14:T18)</f>
+        <v>113.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>167</v>
       </c>
@@ -1266,8 +1313,11 @@
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>101</v>
       </c>
@@ -1325,8 +1375,12 @@
         <f>O13/N13*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T13" s="1">
+        <f>MAX(D12)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>35</v>
       </c>
@@ -1387,8 +1441,12 @@
         <f t="shared" ref="S14:S18" si="1">O14/N14*100</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T14" s="1">
+        <f>MAX(D17)</f>
+        <v>113.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>52</v>
       </c>
@@ -1449,8 +1507,12 @@
         <f t="shared" si="1"/>
         <v>28.571428571428569</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T15" s="1">
+        <f>MAX(D13,D18,D22)</f>
+        <v>108.92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>146</v>
       </c>
@@ -1511,8 +1573,12 @@
         <f t="shared" si="1"/>
         <v>31.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="1">
+        <f>MAX(D14,D19)</f>
+        <v>64.849999999999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>156</v>
       </c>
@@ -1522,8 +1588,8 @@
       <c r="C17" s="11">
         <v>90</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>18</v>
+      <c r="D17" s="11">
+        <v>113.98</v>
       </c>
       <c r="E17" s="11">
         <v>2</v>
@@ -1573,8 +1639,12 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="1">
+        <f>MAX(D15,D20,D21)</f>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>97</v>
       </c>
@@ -1584,8 +1654,8 @@
       <c r="C18" s="5">
         <v>64</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
+      <c r="D18" s="5">
+        <v>81.63</v>
       </c>
       <c r="E18" s="5">
         <v>2</v>
@@ -1636,7 +1706,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>162</v>
       </c>
@@ -1668,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>65</v>
       </c>
@@ -1678,8 +1748,8 @@
       <c r="C20" s="7">
         <v>32</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>18</v>
+      <c r="D20" s="7">
+        <v>33.14</v>
       </c>
       <c r="E20" s="7">
         <v>2</v>
@@ -1709,8 +1779,12 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="17">
+        <f>MAX(T25:T27)</f>
+        <v>56.56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>133</v>
       </c>
@@ -1720,8 +1794,8 @@
       <c r="C21" s="7">
         <v>32</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>18</v>
+      <c r="D21" s="7">
+        <v>44.2</v>
       </c>
       <c r="E21" s="7">
         <v>2</v>
@@ -1765,8 +1839,11 @@
       <c r="S21" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>111</v>
       </c>
@@ -1776,8 +1853,8 @@
       <c r="C22" s="5">
         <v>64</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>18</v>
+      <c r="D22" s="5">
+        <v>73.19</v>
       </c>
       <c r="E22" s="6">
         <v>2</v>
@@ -1824,8 +1901,11 @@
         <f>O22/N22*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T22" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>6</v>
       </c>
@@ -1883,8 +1963,12 @@
         <f t="shared" ref="S23:S27" si="2">O23/N23*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T23" s="1">
+        <f>MAX(D34)</f>
+        <v>112.56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>100</v>
       </c>
@@ -1894,8 +1978,8 @@
       <c r="C24" s="2">
         <v>45</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>18</v>
+      <c r="D24" s="2">
+        <v>56.56</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
@@ -1942,8 +2026,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T24" s="1">
+        <f>MAX(D28,D37)</f>
+        <v>94.14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>127</v>
       </c>
@@ -2004,8 +2092,12 @@
         <f t="shared" si="2"/>
         <v>18.75</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T25" s="1">
+        <f>MAX(D24,D29)</f>
+        <v>56.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>53</v>
       </c>
@@ -2066,8 +2158,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T26" s="1">
+        <f>MAX(D35)</f>
+        <v>42.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>22</v>
       </c>
@@ -2128,8 +2224,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>99</v>
       </c>
@@ -2139,8 +2236,8 @@
       <c r="C28" s="5">
         <v>64</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>18</v>
+      <c r="D28" s="5">
+        <v>72.78</v>
       </c>
       <c r="E28" s="5">
         <v>3</v>
@@ -2161,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>38</v>
       </c>
@@ -2171,8 +2268,8 @@
       <c r="C29" s="2">
         <v>45</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>18</v>
+      <c r="D29" s="2">
+        <v>55.47</v>
       </c>
       <c r="E29" s="2">
         <v>3</v>
@@ -2202,8 +2299,12 @@
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T29" s="18">
+        <f>MAX(T33:T36)</f>
+        <v>77.849999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>135</v>
       </c>
@@ -2258,8 +2359,11 @@
       <c r="S30" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>166</v>
       </c>
@@ -2317,8 +2421,12 @@
         <f>O31/N31*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T31" s="1">
+        <f>MAX(D38)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>29</v>
       </c>
@@ -2376,8 +2484,12 @@
         <f t="shared" ref="S32:S36" si="3">O32/N32*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T32" s="1">
+        <f>MAX(D40)</f>
+        <v>127.22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>160</v>
       </c>
@@ -2438,8 +2550,12 @@
         <f t="shared" si="3"/>
         <v>7.1428571428571423</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T33" s="1">
+        <f>MAX(D42,D45)</f>
+        <v>77.849999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>155</v>
       </c>
@@ -2449,8 +2565,8 @@
       <c r="C34" s="11">
         <v>90</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>18</v>
+      <c r="D34" s="11">
+        <v>112.56</v>
       </c>
       <c r="E34" s="11">
         <v>3</v>
@@ -2500,8 +2616,12 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T34" s="1">
+        <f>MAX(D39,D44,D48)</f>
+        <v>76.02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>137</v>
       </c>
@@ -2511,8 +2631,8 @@
       <c r="C35" s="7">
         <v>32</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>18</v>
+      <c r="D35" s="7">
+        <v>42.84</v>
       </c>
       <c r="E35" s="7">
         <v>3</v>
@@ -2562,8 +2682,12 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T35" s="1">
+        <f>MAX(D43)</f>
+        <v>43.73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>141</v>
       </c>
@@ -2624,8 +2748,9 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>94</v>
       </c>
@@ -2635,8 +2760,8 @@
       <c r="C37" s="5">
         <v>64</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>18</v>
+      <c r="D37" s="5">
+        <v>94.14</v>
       </c>
       <c r="E37" s="6">
         <v>3</v>
@@ -2657,7 +2782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>8</v>
       </c>
@@ -2698,8 +2823,12 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T38" s="16">
+        <f>MAX(T41:T45)</f>
+        <v>108.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>98</v>
       </c>
@@ -2709,8 +2838,8 @@
       <c r="C39" s="2">
         <v>45</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>18</v>
+      <c r="D39" s="2">
+        <v>76.02</v>
       </c>
       <c r="E39" s="2">
         <v>4</v>
@@ -2754,8 +2883,11 @@
       <c r="S39" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>11</v>
       </c>
@@ -2813,8 +2945,12 @@
         <f>O40/N40*100</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T40" s="1">
+        <f>D49</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>82</v>
       </c>
@@ -2875,8 +3011,12 @@
         <f t="shared" ref="S41:S45" si="4">O41/N41*100</f>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T41" s="1">
+        <f>MAX(D51,D59)</f>
+        <v>108.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>18</v>
       </c>
@@ -2886,8 +3026,8 @@
       <c r="C42" s="5">
         <v>64</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>18</v>
+      <c r="D42" s="5">
+        <v>76.37</v>
       </c>
       <c r="E42" s="5">
         <v>4</v>
@@ -2937,8 +3077,12 @@
         <f t="shared" si="4"/>
         <v>7.1428571428571423</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T42" s="1">
+        <f>MAX(D50,D56,D65,D66)</f>
+        <v>104.24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>85</v>
       </c>
@@ -2999,8 +3143,12 @@
         <f t="shared" si="4"/>
         <v>43.75</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T43" s="1">
+        <f>MAX(D52,D53,D55,D57,D60)</f>
+        <v>62.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>159</v>
       </c>
@@ -3061,8 +3209,12 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T44" s="1">
+        <f>MAX(D63,D67,D68)</f>
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>37</v>
       </c>
@@ -3072,8 +3224,8 @@
       <c r="C45" s="5">
         <v>64</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>18</v>
+      <c r="D45" s="5">
+        <v>77.849999999999994</v>
       </c>
       <c r="E45" s="5">
         <v>4</v>
@@ -3123,8 +3275,9 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>118</v>
       </c>
@@ -3156,7 +3309,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>165</v>
       </c>
@@ -3188,7 +3341,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>164</v>
       </c>
@@ -3198,8 +3351,8 @@
       <c r="C48" s="2">
         <v>45</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>18</v>
+      <c r="D48" s="2">
+        <v>56.54</v>
       </c>
       <c r="E48" s="4">
         <v>4</v>
@@ -3220,7 +3373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>168</v>
       </c>
@@ -3252,7 +3405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>17</v>
       </c>
@@ -3262,8 +3415,8 @@
       <c r="C50" s="5">
         <v>64</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>18</v>
+      <c r="D50" s="5">
+        <v>104.24</v>
       </c>
       <c r="E50" s="5">
         <v>5</v>
@@ -3284,7 +3437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="11">
         <v>150</v>
       </c>
@@ -3316,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>132</v>
       </c>
@@ -3326,8 +3479,8 @@
       <c r="C52" s="2">
         <v>45</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>18</v>
+      <c r="D52" s="2">
+        <v>57.63</v>
       </c>
       <c r="E52" s="2">
         <v>5</v>
@@ -3348,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>161</v>
       </c>
@@ -3358,8 +3511,8 @@
       <c r="C53" s="2">
         <v>45</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>18</v>
+      <c r="D53" s="2">
+        <v>43.54</v>
       </c>
       <c r="E53" s="2">
         <v>5</v>
@@ -3380,7 +3533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>145</v>
       </c>
@@ -3412,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>107</v>
       </c>
@@ -3444,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>105</v>
       </c>
@@ -3454,8 +3607,8 @@
       <c r="C56" s="5">
         <v>64</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>18</v>
+      <c r="D56" s="5">
+        <v>78.400000000000006</v>
       </c>
       <c r="E56" s="5">
         <v>5</v>
@@ -3476,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>91</v>
       </c>
@@ -3486,8 +3639,8 @@
       <c r="C57" s="2">
         <v>45</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>18</v>
+      <c r="D57" s="2">
+        <v>58.05</v>
       </c>
       <c r="E57" s="2">
         <v>5</v>
@@ -3508,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>69</v>
       </c>
@@ -3540,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="11">
         <v>152</v>
       </c>
@@ -3572,7 +3725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>121</v>
       </c>
@@ -3582,8 +3735,8 @@
       <c r="C60" s="2">
         <v>45</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>18</v>
+      <c r="D60" s="2">
+        <v>62.75</v>
       </c>
       <c r="E60" s="2">
         <v>5</v>
@@ -3604,7 +3757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>61</v>
       </c>
@@ -3636,7 +3789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
         <v>146</v>
       </c>
@@ -3668,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>45</v>
       </c>
@@ -3700,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -3732,7 +3885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>96</v>
       </c>
@@ -3764,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>12</v>
       </c>
@@ -3796,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
         <v>74</v>
       </c>
@@ -3806,7 +3959,9 @@
       <c r="C67" s="7">
         <v>32</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <v>37.9</v>
+      </c>
       <c r="E67" s="7">
         <v>5</v>
       </c>
@@ -3826,7 +3981,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="10">
         <v>51</v>
       </c>
@@ -3836,7 +3991,9 @@
       <c r="C68" s="10">
         <v>32</v>
       </c>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10">
+        <v>28.52</v>
+      </c>
       <c r="E68" s="10">
         <v>5</v>
       </c>
@@ -3856,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H69" s="1"/>
     </row>
   </sheetData>
@@ -3868,5 +4025,6 @@
     <mergeCell ref="L38:S38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>